--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel40/field_16ha_100ha_6%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel40/field_16ha_100ha_6%_12m_0_LM/Planilha_Unificada.xlsx
@@ -1527,28 +1527,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>60.38313179724952</v>
+        <v>94.74592127003977</v>
       </c>
       <c r="AB2" t="n">
-        <v>82.61886484073172</v>
+        <v>129.6355493766589</v>
       </c>
       <c r="AC2" t="n">
-        <v>74.73383633665678</v>
+        <v>117.2633144888212</v>
       </c>
       <c r="AD2" t="n">
-        <v>60383.13179724952</v>
+        <v>94745.92127003978</v>
       </c>
       <c r="AE2" t="n">
-        <v>82618.86484073172</v>
+        <v>129635.5493766589</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.085297727754017e-06</v>
+        <v>7.331292769810235e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.9765625</v>
       </c>
       <c r="AH2" t="n">
-        <v>74733.83633665678</v>
+        <v>117263.3144888212</v>
       </c>
     </row>
     <row r="3">
@@ -1633,28 +1633,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>59.09523769283456</v>
+        <v>84.99534107928469</v>
       </c>
       <c r="AB3" t="n">
-        <v>80.85671130919418</v>
+        <v>116.294375394436</v>
       </c>
       <c r="AC3" t="n">
-        <v>73.13986026497061</v>
+        <v>105.1954034270021</v>
       </c>
       <c r="AD3" t="n">
-        <v>59095.23769283456</v>
+        <v>84995.34107928468</v>
       </c>
       <c r="AE3" t="n">
-        <v>80856.71130919419</v>
+        <v>116294.375394436</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.428254510687898e-06</v>
+        <v>7.825721359380941e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.598958333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>73139.8602649706</v>
+        <v>105195.4034270021</v>
       </c>
     </row>
   </sheetData>
@@ -1930,28 +1930,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>57.16534459172141</v>
+        <v>82.24702305613796</v>
       </c>
       <c r="AB2" t="n">
-        <v>78.21614642737779</v>
+        <v>112.5340054279345</v>
       </c>
       <c r="AC2" t="n">
-        <v>70.75130718941786</v>
+        <v>101.79391789239</v>
       </c>
       <c r="AD2" t="n">
-        <v>57165.3445917214</v>
+        <v>82247.02305613796</v>
       </c>
       <c r="AE2" t="n">
-        <v>78216.1464273778</v>
+        <v>112534.0054279345</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.841102050445922e-06</v>
+        <v>8.551153665710121e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.377604166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>70751.30718941786</v>
+        <v>101793.91789239</v>
       </c>
     </row>
     <row r="3">
@@ -2036,28 +2036,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>57.23101425782214</v>
+        <v>82.31269272223869</v>
       </c>
       <c r="AB3" t="n">
-        <v>78.305998561678</v>
+        <v>112.6238575622347</v>
       </c>
       <c r="AC3" t="n">
-        <v>70.83258396212874</v>
+        <v>101.8751946651008</v>
       </c>
       <c r="AD3" t="n">
-        <v>57231.01425782214</v>
+        <v>82312.69272223869</v>
       </c>
       <c r="AE3" t="n">
-        <v>78305.99856167799</v>
+        <v>112623.8575622347</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.810267016079175e-06</v>
+        <v>8.506012335378907e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.416666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>70832.58396212873</v>
+        <v>101875.1946651008</v>
       </c>
     </row>
   </sheetData>
@@ -2333,28 +2333,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>52.21755699621632</v>
+        <v>67.75222397324684</v>
       </c>
       <c r="AB2" t="n">
-        <v>71.44636515822791</v>
+        <v>92.70158185732851</v>
       </c>
       <c r="AC2" t="n">
-        <v>64.6276243431458</v>
+        <v>83.85427299237499</v>
       </c>
       <c r="AD2" t="n">
-        <v>52217.55699621632</v>
+        <v>67752.22397324684</v>
       </c>
       <c r="AE2" t="n">
-        <v>71446.36515822791</v>
+        <v>92701.58185732851</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.759937179894112e-06</v>
+        <v>1.045845721604803e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.1953125</v>
       </c>
       <c r="AH2" t="n">
-        <v>64627.6243431458</v>
+        <v>83854.27299237499</v>
       </c>
     </row>
   </sheetData>
@@ -2630,28 +2630,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>54.03825627259549</v>
+        <v>70.08127680463549</v>
       </c>
       <c r="AB2" t="n">
-        <v>73.93752623175178</v>
+        <v>95.88829469179198</v>
       </c>
       <c r="AC2" t="n">
-        <v>66.88103250017986</v>
+        <v>86.73685042649785</v>
       </c>
       <c r="AD2" t="n">
-        <v>54038.25627259549</v>
+        <v>70081.27680463549</v>
       </c>
       <c r="AE2" t="n">
-        <v>73937.52623175178</v>
+        <v>95888.29469179199</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.479209632402479e-06</v>
+        <v>9.791990437704517e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.182291666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>66881.03250017986</v>
+        <v>86736.85042649785</v>
       </c>
     </row>
   </sheetData>
@@ -2927,28 +2927,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>50.93138692672248</v>
+        <v>73.43722963755343</v>
       </c>
       <c r="AB2" t="n">
-        <v>69.6865705273285</v>
+        <v>100.4800574119779</v>
       </c>
       <c r="AC2" t="n">
-        <v>63.03578204193158</v>
+        <v>90.89038175725011</v>
       </c>
       <c r="AD2" t="n">
-        <v>50931.38692672248</v>
+        <v>73437.22963755344</v>
       </c>
       <c r="AE2" t="n">
-        <v>69686.5705273285</v>
+        <v>100480.0574119779</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.773389023569837e-06</v>
+        <v>1.070526000567005e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.377604166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>63035.78204193158</v>
+        <v>90890.38175725011</v>
       </c>
     </row>
   </sheetData>
@@ -3224,28 +3224,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>57.90546687434572</v>
+        <v>83.32801483166637</v>
       </c>
       <c r="AB2" t="n">
-        <v>79.22881438635454</v>
+        <v>114.0130660652031</v>
       </c>
       <c r="AC2" t="n">
-        <v>71.6673275396786</v>
+        <v>103.1318190583127</v>
       </c>
       <c r="AD2" t="n">
-        <v>57905.46687434572</v>
+        <v>83328.01483166637</v>
       </c>
       <c r="AE2" t="n">
-        <v>79228.81438635454</v>
+        <v>114013.0660652031</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.636750945697229e-06</v>
+        <v>8.21774191772391e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.533854166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>71667.32753967859</v>
+        <v>103131.8190583127</v>
       </c>
     </row>
     <row r="3">
@@ -3330,28 +3330,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>57.46404485603627</v>
+        <v>82.71600061276472</v>
       </c>
       <c r="AB3" t="n">
-        <v>78.62484130673883</v>
+        <v>113.1756812107405</v>
       </c>
       <c r="AC3" t="n">
-        <v>71.12099680309967</v>
+        <v>102.3743530390828</v>
       </c>
       <c r="AD3" t="n">
-        <v>57464.04485603627</v>
+        <v>82716.00061276472</v>
       </c>
       <c r="AE3" t="n">
-        <v>78624.84130673883</v>
+        <v>113175.6812107405</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.799926601162213e-06</v>
+        <v>8.455633468509962e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.377604166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>71120.99680309967</v>
+        <v>102374.3530390828</v>
       </c>
     </row>
   </sheetData>
@@ -3627,28 +3627,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>50.19019298239532</v>
+        <v>72.49627892552643</v>
       </c>
       <c r="AB2" t="n">
-        <v>68.67243627353156</v>
+        <v>99.19260713596748</v>
       </c>
       <c r="AC2" t="n">
-        <v>62.11843533797034</v>
+        <v>89.72580392863394</v>
       </c>
       <c r="AD2" t="n">
-        <v>50190.19298239533</v>
+        <v>72496.27892552642</v>
       </c>
       <c r="AE2" t="n">
-        <v>68672.43627353157</v>
+        <v>99192.60713596748</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.714630917625198e-06</v>
+        <v>1.075841598124655e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.546875</v>
       </c>
       <c r="AH2" t="n">
-        <v>62118.43533797034</v>
+        <v>89725.80392863393</v>
       </c>
     </row>
   </sheetData>
@@ -3924,28 +3924,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>55.7277655427387</v>
+        <v>80.25681180806488</v>
       </c>
       <c r="AB2" t="n">
-        <v>76.24918735104907</v>
+        <v>109.8109105963988</v>
       </c>
       <c r="AC2" t="n">
-        <v>68.97207192668893</v>
+        <v>99.33071140968752</v>
       </c>
       <c r="AD2" t="n">
-        <v>55727.7655427387</v>
+        <v>80256.81180806489</v>
       </c>
       <c r="AE2" t="n">
-        <v>76249.18735104907</v>
+        <v>109810.9105963988</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.124325863019965e-06</v>
+        <v>9.093663594709281e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.286458333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>68972.07192668892</v>
+        <v>99330.71140968753</v>
       </c>
     </row>
   </sheetData>
@@ -4221,28 +4221,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>56.58474651981154</v>
+        <v>81.4896726841591</v>
       </c>
       <c r="AB2" t="n">
-        <v>77.42174653121197</v>
+        <v>111.4977652370532</v>
       </c>
       <c r="AC2" t="n">
-        <v>70.03272370439457</v>
+        <v>100.8565750109538</v>
       </c>
       <c r="AD2" t="n">
-        <v>56584.74651981154</v>
+        <v>81489.6726841591</v>
       </c>
       <c r="AE2" t="n">
-        <v>77421.74653121196</v>
+        <v>111497.7652370532</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.976901530987503e-06</v>
+        <v>8.788689904813197e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.3125</v>
       </c>
       <c r="AH2" t="n">
-        <v>70032.72370439456</v>
+        <v>100856.5750109538</v>
       </c>
     </row>
   </sheetData>
@@ -4518,28 +4518,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>59.48018920672176</v>
+        <v>85.22617483170893</v>
       </c>
       <c r="AB2" t="n">
-        <v>81.38341895335658</v>
+        <v>116.6102123181691</v>
       </c>
       <c r="AC2" t="n">
-        <v>73.61629967081312</v>
+        <v>105.4810973180142</v>
       </c>
       <c r="AD2" t="n">
-        <v>59480.18920672176</v>
+        <v>85226.17483170894</v>
       </c>
       <c r="AE2" t="n">
-        <v>81383.41895335658</v>
+        <v>116610.2123181691</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.282929271785411e-06</v>
+        <v>7.643196825077222e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.794270833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>73616.29967081312</v>
+        <v>105481.0973180142</v>
       </c>
     </row>
     <row r="3">
@@ -4624,28 +4624,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>58.50450730549171</v>
+        <v>84.07990072988669</v>
       </c>
       <c r="AB3" t="n">
-        <v>80.04844793204671</v>
+        <v>115.0418295220123</v>
       </c>
       <c r="AC3" t="n">
-        <v>72.40873641013305</v>
+        <v>104.0623987746831</v>
       </c>
       <c r="AD3" t="n">
-        <v>58504.50730549171</v>
+        <v>84079.90072988669</v>
       </c>
       <c r="AE3" t="n">
-        <v>80048.44793204671</v>
+        <v>115041.8295220124</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.576489391160243e-06</v>
+        <v>8.067911534842154e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.494791666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>72408.73641013305</v>
+        <v>104062.3987746831</v>
       </c>
     </row>
   </sheetData>
@@ -4921,28 +4921,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>54.57874363434361</v>
+        <v>70.77045160929231</v>
       </c>
       <c r="AB2" t="n">
-        <v>74.67704488471473</v>
+        <v>96.83125406376955</v>
       </c>
       <c r="AC2" t="n">
-        <v>67.54997253082522</v>
+        <v>87.58981507946596</v>
       </c>
       <c r="AD2" t="n">
-        <v>54578.74363434361</v>
+        <v>70770.45160929231</v>
       </c>
       <c r="AE2" t="n">
-        <v>74677.04488471473</v>
+        <v>96831.25406376955</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.37406587082818e-06</v>
+        <v>9.571836647067082e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.1953125</v>
       </c>
       <c r="AH2" t="n">
-        <v>67549.97253082521</v>
+        <v>87589.81507946596</v>
       </c>
     </row>
   </sheetData>
@@ -5218,28 +5218,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>52.9109204894091</v>
+        <v>68.62739398212081</v>
       </c>
       <c r="AB2" t="n">
-        <v>72.39505567865226</v>
+        <v>93.89902807324511</v>
       </c>
       <c r="AC2" t="n">
-        <v>65.48577317179665</v>
+        <v>84.93743662207122</v>
       </c>
       <c r="AD2" t="n">
-        <v>52910.9204894091</v>
+        <v>68627.3939821208</v>
       </c>
       <c r="AE2" t="n">
-        <v>72395.05567865225</v>
+        <v>93899.02807324511</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.640140975215409e-06</v>
+        <v>1.018429463285297e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.1953125</v>
       </c>
       <c r="AH2" t="n">
-        <v>65485.77317179665</v>
+        <v>84937.43662207121</v>
       </c>
     </row>
   </sheetData>
@@ -8240,28 +8240,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>51.60892808315869</v>
+        <v>66.94553777189235</v>
       </c>
       <c r="AB2" t="n">
-        <v>70.61361222857028</v>
+        <v>91.59783820815234</v>
       </c>
       <c r="AC2" t="n">
-        <v>63.87434818431834</v>
+        <v>82.85586908796191</v>
       </c>
       <c r="AD2" t="n">
-        <v>51608.92808315869</v>
+        <v>66945.53777189234</v>
       </c>
       <c r="AE2" t="n">
-        <v>70613.61222857027</v>
+        <v>91597.83820815235</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.776049062095397e-06</v>
+        <v>1.058744299947932e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.2734375</v>
       </c>
       <c r="AH2" t="n">
-        <v>63874.34818431834</v>
+        <v>82855.86908796191</v>
       </c>
     </row>
   </sheetData>
@@ -8537,28 +8537,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>49.46602058296898</v>
+        <v>78.46236351048412</v>
       </c>
       <c r="AB2" t="n">
-        <v>67.68159164840546</v>
+        <v>107.3556672701783</v>
       </c>
       <c r="AC2" t="n">
-        <v>61.2221555332068</v>
+        <v>97.10979306056517</v>
       </c>
       <c r="AD2" t="n">
-        <v>49466.02058296898</v>
+        <v>78462.36351048412</v>
       </c>
       <c r="AE2" t="n">
-        <v>67681.59164840546</v>
+        <v>107355.6672701783</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.443277283502006e-06</v>
+        <v>1.050045520784043e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.950520833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>61222.15553320679</v>
+        <v>97109.79306056516</v>
       </c>
     </row>
   </sheetData>
@@ -8834,28 +8834,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>56.16207850844742</v>
+        <v>80.88307322551849</v>
       </c>
       <c r="AB2" t="n">
-        <v>76.84343351126721</v>
+        <v>110.6677890964621</v>
       </c>
       <c r="AC2" t="n">
-        <v>69.50960406740575</v>
+        <v>100.1058106283417</v>
       </c>
       <c r="AD2" t="n">
-        <v>56162.07850844742</v>
+        <v>80883.07322551848</v>
       </c>
       <c r="AE2" t="n">
-        <v>76843.43351126721</v>
+        <v>110667.7890964621</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.050182594649125e-06</v>
+        <v>8.938423630679078e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.299479166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>69509.60406740574</v>
+        <v>100105.8106283417</v>
       </c>
     </row>
   </sheetData>
@@ -9131,28 +9131,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>58.81827547074251</v>
+        <v>84.40522399286209</v>
       </c>
       <c r="AB2" t="n">
-        <v>80.47775937821713</v>
+        <v>115.4869511626645</v>
       </c>
       <c r="AC2" t="n">
-        <v>72.79707497442351</v>
+        <v>104.4650386306837</v>
       </c>
       <c r="AD2" t="n">
-        <v>58818.2754707425</v>
+        <v>84405.22399286208</v>
       </c>
       <c r="AE2" t="n">
-        <v>80477.75937821713</v>
+        <v>115486.9511626645</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.409881293205809e-06</v>
+        <v>7.856061992223418e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.716145833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>72797.07497442351</v>
+        <v>104465.0386306837</v>
       </c>
     </row>
     <row r="3">
@@ -9237,28 +9237,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>58.22346351253594</v>
+        <v>83.81041203465551</v>
       </c>
       <c r="AB3" t="n">
-        <v>79.66391141574773</v>
+        <v>114.6731032001951</v>
       </c>
       <c r="AC3" t="n">
-        <v>72.06089951924913</v>
+        <v>103.7288631755093</v>
       </c>
       <c r="AD3" t="n">
-        <v>58223.46351253593</v>
+        <v>83810.41203465551</v>
       </c>
       <c r="AE3" t="n">
-        <v>79663.91141574773</v>
+        <v>114673.1032001951</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.601118874572489e-06</v>
+        <v>8.133771282507904e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.520833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>72060.89951924913</v>
+        <v>103728.8631755093</v>
       </c>
     </row>
   </sheetData>
@@ -9534,28 +9534,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>56.01248083103668</v>
+        <v>84.3897958575091</v>
       </c>
       <c r="AB2" t="n">
-        <v>76.6387473692502</v>
+        <v>115.4658417072333</v>
       </c>
       <c r="AC2" t="n">
-        <v>69.32445288350397</v>
+        <v>104.4459438320514</v>
       </c>
       <c r="AD2" t="n">
-        <v>56012.48083103668</v>
+        <v>84389.7958575091</v>
       </c>
       <c r="AE2" t="n">
-        <v>76638.7473692502</v>
+        <v>115465.8417072333</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.747426891836943e-06</v>
+        <v>9.580618202505159e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.901041666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>69324.45288350397</v>
+        <v>104445.9438320514</v>
       </c>
     </row>
   </sheetData>
@@ -9831,28 +9831,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>53.53728818386232</v>
+        <v>69.42245964404489</v>
       </c>
       <c r="AB2" t="n">
-        <v>73.25207959159513</v>
+        <v>94.98687198771057</v>
       </c>
       <c r="AC2" t="n">
-        <v>66.26100392532916</v>
+        <v>85.92145824013896</v>
       </c>
       <c r="AD2" t="n">
-        <v>53537.28818386232</v>
+        <v>69422.45964404489</v>
       </c>
       <c r="AE2" t="n">
-        <v>73252.07959159513</v>
+        <v>94986.87198771058</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.535177397445919e-06</v>
+        <v>9.945929755299862e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.208333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>66261.00392532916</v>
+        <v>85921.45824013896</v>
       </c>
     </row>
   </sheetData>
@@ -10128,28 +10128,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>55.13313558087977</v>
+        <v>71.46566739549297</v>
       </c>
       <c r="AB2" t="n">
-        <v>75.43558840401164</v>
+        <v>97.78247897320466</v>
       </c>
       <c r="AC2" t="n">
-        <v>68.23612172126317</v>
+        <v>88.45025641859745</v>
       </c>
       <c r="AD2" t="n">
-        <v>55133.13558087977</v>
+        <v>71465.66739549297</v>
       </c>
       <c r="AE2" t="n">
-        <v>75435.58840401164</v>
+        <v>97782.47897320466</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.254166151948352e-06</v>
+        <v>9.336911530430064e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.234374999999999</v>
       </c>
       <c r="AH2" t="n">
-        <v>68236.12172126317</v>
+        <v>88450.25641859745</v>
       </c>
     </row>
   </sheetData>
